--- a/public/ExamplesImportacion/Dtelefonos.xlsx
+++ b/public/ExamplesImportacion/Dtelefonos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46279ED4-623C-4FA2-9521-52D13E6054FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D723DB-0EA6-4345-82BA-5B247F01B57E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
   <si>
     <t>DNI</t>
   </si>
@@ -54,13 +54,10 @@
     <t>CASA</t>
   </si>
   <si>
-    <t>TRABAJO</t>
+    <t>EMPRESA</t>
   </si>
   <si>
-    <t>PERSONAL</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
+    <t>RUC</t>
   </si>
 </sst>
 </file>
@@ -449,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E8AFC-3CFF-4AC6-89A2-4D1B22EE8B8D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,8 +519,8 @@
       <c r="B4">
         <v>20230015</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
         <v>51</v>
@@ -554,16 +551,305 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>20230006</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>999000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>20230013</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>999000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>20230019</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>999000019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>20230014</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>999000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>20230010</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>999000010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>20230008</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>999000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>20230009</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>999000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>20408000001</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>998000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>20408000008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>998000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>20408000017</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>998000017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>20408000022</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>998000022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20408000004</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>998000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>20230001</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>999001001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>20230017</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>999001017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>20230015</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>999001015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>20230002</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>51</v>
-      </c>
-      <c r="E6">
-        <v>999000002</v>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>999001002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>20230006</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>999001006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>20230013</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>999001013</v>
       </c>
     </row>
   </sheetData>

--- a/public/ExamplesImportacion/Dtelefonos.xlsx
+++ b/public/ExamplesImportacion/Dtelefonos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D723DB-0EA6-4345-82BA-5B247F01B57E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385ED35-F86C-4BEE-976C-5133FE0C0A4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>DNI</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>RUC</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>PERU</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E8AFC-3CFF-4AC6-89A2-4D1B22EE8B8D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,11 +463,12 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -472,13 +479,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,14 +498,17 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>51</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
+        <v>51</v>
+      </c>
+      <c r="F2">
         <v>999000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,14 +518,17 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>51</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
         <v>999000017</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,14 +538,17 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>51</v>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E4">
+        <v>51</v>
+      </c>
+      <c r="F4">
         <v>999000015</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,14 +558,17 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>51</v>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5">
+        <v>51</v>
+      </c>
+      <c r="F5">
         <v>999000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,14 +578,17 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>51</v>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
         <v>999000006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,14 +598,17 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>51</v>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
         <v>999000013</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,14 +618,17 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>51</v>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
         <v>999000019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,14 +638,17 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>51</v>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
         <v>999000014</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +658,17 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>51</v>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="F10">
         <v>999000010</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,14 +678,17 @@
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>51</v>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11">
         <v>999000008</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,14 +698,17 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>51</v>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
         <v>999000009</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -675,14 +718,17 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>51</v>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13">
         <v>998000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -692,14 +738,17 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>51</v>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="F14">
         <v>998000008</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -709,14 +758,17 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>51</v>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
         <v>998000017</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -726,14 +778,17 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>51</v>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E16">
+        <v>51</v>
+      </c>
+      <c r="F16">
         <v>998000022</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,14 +798,17 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>51</v>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17">
         <v>998000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,14 +818,17 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>51</v>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18">
+        <v>51</v>
+      </c>
+      <c r="F18">
         <v>999001001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,14 +838,17 @@
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>51</v>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
         <v>999001017</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,14 +858,17 @@
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>51</v>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="F20">
         <v>999001015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,14 +878,17 @@
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>51</v>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21">
         <v>999001002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,14 +898,17 @@
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>51</v>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="F22">
         <v>999001006</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,10 +918,13 @@
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>51</v>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="F23">
         <v>999001013</v>
       </c>
     </row>
